--- a/file.xlsx
+++ b/file.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksejtihonov/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksejtihonov/Desktop/SP/regalii/new_backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C29D35-E6CD-4542-A49E-C062FD358E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5F0686-9066-0E45-9B32-28297C533271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{D6660CA3-A421-3341-A3BE-7EA0415CA381}"/>
   </bookViews>
@@ -44,13 +44,13 @@
     <t>Регалия полностью</t>
   </si>
   <si>
-    <t>Проф. Мескина Елена Руслановна (Московская область)</t>
-  </si>
-  <si>
-    <t>Мескина Елена Руслановна</t>
-  </si>
-  <si>
-    <t>Московская область</t>
+    <t>Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>Семененко Анастасия Евгеньевна</t>
+  </si>
+  <si>
+    <t>Семененко Анастасия Евгеньевна (Санкт-Петербург)</t>
   </si>
 </sst>
 </file>
@@ -66,17 +66,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Bookman Old Style"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Bookman Old Style"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
@@ -424,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809CF31E-D499-244A-893D-4835572105EC}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -438,7 +437,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -452,22 +451,36 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
